--- a/data/trans_camb/P16B98-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16B98-Provincia-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
